--- a/group-reports/tables/shahriar-1-2-tests-results-after-queue-test-3.xlsx
+++ b/group-reports/tables/shahriar-1-2-tests-results-after-queue-test-3.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8 msec</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2495 msec</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>1278.97</t>
+          <t>1278.97 msec</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4 msec</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>2579</t>
+          <t>2579 msec</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>1278.95</t>
+          <t>1278.95 msec</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -780,17 +780,17 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>68 msec</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2524</t>
+          <t>2524 msec</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>1287.56</t>
+          <t>1287.56 msec</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -857,17 +857,17 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>84 msec</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2472</t>
+          <t>2472 msec</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>1279.13</t>
+          <t>1279.13 msec</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>1345</t>
+          <t>1345 usec</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2489.8k</t>
+          <t>2489.8k usec</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>1278739.03</t>
+          <t>1278739.03 usec</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>88 msec</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>2475 msec</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>1283.55</t>
+          <t>1283.55 msec</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>95 msec</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>2533</t>
+          <t>2533 msec</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>1279.14</t>
+          <t>1279.14 msec</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>82 msec</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2495 msec</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>1279.09</t>
+          <t>1279.09 msec</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>54 msec</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>2526</t>
+          <t>2526 msec</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>1279.17</t>
+          <t>1279.17 msec</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40 msec</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>2518</t>
+          <t>2518 msec</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>1279.18</t>
+          <t>1279.18 msec</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40 msec</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2488 msec</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>1279.23</t>
+          <t>1279.23 msec</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90 msec</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2495 msec</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>1279.03</t>
+          <t>1279.03 msec</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>52 msec</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>2476</t>
+          <t>2476 msec</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>1283.45</t>
+          <t>1283.45 msec</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -1627,17 +1627,17 @@
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>94 msec</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>2515</t>
+          <t>2515 msec</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>1278.97</t>
+          <t>1278.97 msec</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22 msec</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>2504</t>
+          <t>2504 msec</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>1278.73</t>
+          <t>1278.73 msec</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -1781,17 +1781,17 @@
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>93 msec</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>2524</t>
+          <t>2524 msec</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>1279.14</t>
+          <t>1279.14 msec</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>298 msec</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>2811</t>
+          <t>2811 msec</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>1284.47</t>
+          <t>1284.47 msec</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>78 msec</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>2496</t>
+          <t>2496 msec</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>1279.12</t>
+          <t>1279.12 msec</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2012,17 +2012,17 @@
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>61 msec</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2455 msec</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>1278.98</t>
+          <t>1278.98 msec</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -2089,17 +2089,17 @@
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90 msec</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2495 msec</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>1283.81</t>
+          <t>1283.81 msec</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>2549</t>
+          <t>2549 msec</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>1279.01</t>
+          <t>1279.01 msec</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
